--- a/Crawling/crawling_data/month_genie/month_genie_20220301.xlsx
+++ b/Crawling/crawling_data/month_genie/month_genie_20220301.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="239">
   <si>
     <t>날짜</t>
   </si>
@@ -46,8 +46,7 @@
     <t>GANADARA (Feat. 아이유)</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>TOMBOY</t>
@@ -275,8 +274,7 @@
     <t>에잇 (Prod. &amp; Feat. SUGA of BTS)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>Wake Up (Prod. by 코드 쿤스트)</t>
@@ -553,9 +551,6 @@
   </si>
   <si>
     <t>GANADARA</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>I NEVER DIE</t>
@@ -1198,7 +1193,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1215,7 +1210,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1249,7 +1244,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1266,7 +1261,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1283,7 +1278,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1300,7 +1295,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1368,7 +1363,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1402,7 +1397,7 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1436,7 +1431,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1453,7 +1448,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1487,7 +1482,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1504,7 +1499,7 @@
         <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1538,7 +1533,7 @@
         <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1555,7 +1550,7 @@
         <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1572,7 +1567,7 @@
         <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1589,7 +1584,7 @@
         <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1606,7 +1601,7 @@
         <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1675,7 +1670,7 @@
         <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1692,7 +1687,7 @@
         <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1709,7 +1704,7 @@
         <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1726,7 +1721,7 @@
         <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1760,7 +1755,7 @@
         <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1777,7 +1772,7 @@
         <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1794,7 +1789,7 @@
         <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1811,7 +1806,7 @@
         <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1828,7 +1823,7 @@
         <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1862,7 +1857,7 @@
         <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1879,7 +1874,7 @@
         <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1896,7 +1891,7 @@
         <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1913,7 +1908,7 @@
         <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1930,7 +1925,7 @@
         <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1947,7 +1942,7 @@
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1981,7 +1976,7 @@
         <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2015,7 +2010,7 @@
         <v>112</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2066,7 +2061,7 @@
         <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2100,7 +2095,7 @@
         <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2117,7 +2112,7 @@
         <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2134,7 +2129,7 @@
         <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2151,7 +2146,7 @@
         <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2168,7 +2163,7 @@
         <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2185,7 +2180,7 @@
         <v>123</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2202,7 +2197,7 @@
         <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2219,7 +2214,7 @@
         <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2236,7 +2231,7 @@
         <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2253,7 +2248,7 @@
         <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2270,7 +2265,7 @@
         <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2287,7 +2282,7 @@
         <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2321,7 +2316,7 @@
         <v>143</v>
       </c>
       <c r="E72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2338,7 +2333,7 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2355,7 +2350,7 @@
         <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2372,7 +2367,7 @@
         <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2423,7 +2418,7 @@
         <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2440,7 +2435,7 @@
         <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2474,7 +2469,7 @@
         <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2491,7 +2486,7 @@
         <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2508,7 +2503,7 @@
         <v>161</v>
       </c>
       <c r="E83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2559,7 +2554,7 @@
         <v>164</v>
       </c>
       <c r="E86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2593,7 +2588,7 @@
         <v>166</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2644,7 +2639,7 @@
         <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2661,7 +2656,7 @@
         <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2678,7 +2673,7 @@
         <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2712,7 +2707,7 @@
         <v>172</v>
       </c>
       <c r="E95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2746,7 +2741,7 @@
         <v>173</v>
       </c>
       <c r="E97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2763,7 +2758,7 @@
         <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2780,7 +2775,7 @@
         <v>174</v>
       </c>
       <c r="E99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2797,7 +2792,7 @@
         <v>175</v>
       </c>
       <c r="E100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:5">
